--- a/prosessing/第三回/距離センサ/実験２/Book2.xlsx
+++ b/prosessing/第三回/距離センサ/実験２/Book2.xlsx
@@ -8,20 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23003kk/マイコン/src/prosessing/第三回/距離センサ/実験２/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27366310-5324-654B-9A28-4BF14359D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D145F8FA-709A-2145-B0B4-713C1F21D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="22240" windowHeight="15400" xr2:uid="{22B3D231-5AF0-2A4B-B1CD-52AAFE4F7D81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{22B3D231-5AF0-2A4B-B1CD-52AAFE4F7D81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$10:$P$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$4:$P$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$10:$P$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$4:$P$4</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +275,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>60</c:v>
@@ -1453,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E882A99A-D493-2E44-854A-625F3236E67E}">
   <dimension ref="B3:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1494,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>60</v>
